--- a/Physics/Lab2.xlsx
+++ b/Physics/Lab2.xlsx
@@ -488,8 +488,8 @@
   </sheetPr>
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD9" activeCellId="0" sqref="AD9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y25" activeCellId="0" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -966,7 +966,7 @@
       </c>
       <c r="V8" s="0" t="n">
         <f aca="false">U8*SQRT(0.005*0.005*2/(J$8*J$8)+4*(POWER(S8*T$13,2)+POWER(T8*T$13,2))/POWER(T8*T8-S8*S8,2))</f>
-        <v>0.0125087756006992</v>
+        <v>0.00168542581390441</v>
       </c>
       <c r="W8" s="0" t="n">
         <f aca="false">U8*R8</f>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">U9*SQRT(0.005*0.005*2/(J$8*J$8)+4*(POWER(S9*T$13,2)+POWER(T9*T$13,2))/POWER(T9*T9-S9*S9,2))</f>
-        <v>0.0449376453832205</v>
+        <v>0.00580726884943612</v>
       </c>
       <c r="W9" s="0" t="n">
         <f aca="false">U9*R9</f>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">U10*SQRT(0.005*0.005*2/(J$8*J$8)+4*(POWER(S10*T$13,2)+POWER(T10*T$13,2))/POWER(T10*T10-S10*S10,2))</f>
-        <v>0.0815826757807292</v>
+        <v>0.0104282940523026</v>
       </c>
       <c r="W10" s="0" t="n">
         <f aca="false">U10*R10</f>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="V11" s="0" t="n">
         <f aca="false">U11*SQRT(0.005*0.005*2/(J$8*J$8)+4*(POWER(S11*T$13,2)+POWER(T11*T$13,2))/POWER(T11*T11-S11*S11,2))</f>
-        <v>0.138195070505334</v>
+        <v>0.0175560120091317</v>
       </c>
       <c r="W11" s="0" t="n">
         <f aca="false">U11*R11</f>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">U12*SQRT(0.005*0.005*2/(J$8*J$8)+4*(POWER(S12*T$13,2)+POWER(T12*T$13,2))/POWER(T12*T12-S12*S12,2))</f>
-        <v>0.178953692309273</v>
+        <v>0.0226716597013349</v>
       </c>
       <c r="W12" s="0" t="n">
         <f aca="false">U12*R12</f>
@@ -1263,10 +1263,10 @@
         <v>42</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
